--- a/MochilaFracionaria/kpfrac_heuristic.xlsx
+++ b/MochilaFracionaria/kpfrac_heuristic.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="kpfrac_heuristic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Instance</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Value</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Log(Time)</t>
   </si>
 </sst>
 </file>
@@ -703,6 +709,2286 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Log(Tempo)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x Tamanho</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$F$2:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-16.056299633178103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16.162050699044656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.644118437859186</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-17.142724191859877</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.032697561442609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.604844281187734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.759481146731241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.908126903127162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14.219104849387181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-14.34716822805712</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13.738857557216676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15.070163995139163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.475040014491913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13.722561728416956</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.942440918227346</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-14.055447036774265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-12.590908391197591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-12.828196824733348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12.01431584907971</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13.443535653236802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-11.615083377359623</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-11.899484260806924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-11.10231835460247</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-12.450318071519765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.713153061045396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.978987468719646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.164796195424719</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11.535126475093842</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.7747902335337553</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.9395791277529941</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.2522732169879074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.601090839139207</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.8589133927737702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.1907253125531962</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.4133383514855904</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.8266095145818806</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.1278854340706506</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-7.2131962394695845</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-8.5464233814593946</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.8452017571472519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.077337153437318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="208965376"/>
+        <c:axId val="208962112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="208965376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208962112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208962112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208965376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempo x Tamanho</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.4674800000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36376E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9527699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9107599999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9833699999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0066599999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6053999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6262100000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2435200000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7981300000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3146199999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9068899999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.7823099999999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3977099999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.2703899999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8733899999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1.62091E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.37508E-4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>2.4173E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9761999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>3.1879500000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>2.6175699999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>4.5485099999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>1.7868199999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>5.9568900000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>4.9544499999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>8.7114699999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>3.36962E-4</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>1.1415500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>1.01833E-3</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>1.6397899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>6.4380399999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>2.1537800000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>1.71126E-3</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>1.4665699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>4.4051000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>3.5748899999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>6.7392499999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>2.6746700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>8.6973899999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>7.40473E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="208968640"/>
+        <c:axId val="208950144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="208968640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208950144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208950144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208968640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586153</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600807</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -966,615 +3252,911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
         <v>1.4674800000000001E-5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>340721</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>455.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>LOG(C2,2)</f>
+        <v>-16.056299633178103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
         <v>1.36376E-5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>367660</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>646</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F42" si="0">LOG(C3,2)</f>
+        <v>-16.162050699044656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2">
         <v>1.9527699999999999E-5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>256098</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1562</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-15.644118437859186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2">
         <v>6.9107599999999997E-6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>725391</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1076</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-17.142724191859877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2">
         <v>2.9833699999999999E-5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>167663</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1293</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-15.032697561442609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.0066599999999999E-5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>249918</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1725</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-15.604844281187734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.6053999999999997E-5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>139097</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3274</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-14.759481146731241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
+        <v>145</v>
+      </c>
+      <c r="C9" s="2">
         <v>1.6262100000000001E-5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>307648</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>2966</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-15.908126903127162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
+        <v>169</v>
+      </c>
+      <c r="C10" s="2">
         <v>5.2435200000000002E-5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>95413</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>3272</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-14.219104849387181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
+        <v>197</v>
+      </c>
+      <c r="C11" s="2">
         <v>4.7981300000000001E-5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>104499</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>4313</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-14.34716822805712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
+        <v>230</v>
+      </c>
+      <c r="C12" s="2">
         <v>7.3146199999999994E-5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>68534</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>8113</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-13.738857557216676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
+        <v>269</v>
+      </c>
+      <c r="C13" s="2">
         <v>2.9068899999999999E-5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>172521</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>6770</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-15.070163995139163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
+        <v>314</v>
+      </c>
+      <c r="C14" s="2">
         <v>8.7823099999999996E-5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>56944</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>8485</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-13.475040014491913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
+        <v>367</v>
+      </c>
+      <c r="C15" s="2">
         <v>7.3977099999999993E-5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>67629</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>11029</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-13.722561728416956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
+        <v>429</v>
+      </c>
+      <c r="C16" s="1">
         <v>1.2703899999999999E-4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>39484</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>18886</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-12.942440918227346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
+        <v>501</v>
+      </c>
+      <c r="C17" s="2">
         <v>5.8733899999999997E-5</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>85351</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>18225</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-14.055447036774265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
+        <v>586</v>
+      </c>
+      <c r="C18" s="1">
         <v>1.62091E-4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>30927</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>23862</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-12.590908391197591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
+        <v>685</v>
+      </c>
+      <c r="C19" s="1">
         <v>1.37508E-4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>36376</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>29748</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-12.828196824733348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
+        <v>801</v>
+      </c>
+      <c r="C20" s="1">
         <v>2.4173E-4</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>20738</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>46388</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-12.01431584907971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
+        <v>937</v>
+      </c>
+      <c r="C21" s="2">
         <v>8.9761999999999999E-5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>55714</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>48627</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-13.443535653236802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
+        <v>1096</v>
+      </c>
+      <c r="C22" s="1">
         <v>3.1879500000000003E-4</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>15728</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>63723</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-11.615083377359623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
+        <v>1282</v>
+      </c>
+      <c r="C23" s="1">
         <v>2.6175699999999999E-4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>19159</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>80086</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-11.899484260806924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1">
+        <v>1499</v>
+      </c>
+      <c r="C24" s="1">
         <v>4.5485099999999999E-4</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>10997</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>116121</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-11.10231835460247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
+        <v>1753</v>
+      </c>
+      <c r="C25" s="1">
         <v>1.7868199999999999E-4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>28005</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>131250</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-12.450318071519765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1">
+        <v>2051</v>
+      </c>
+      <c r="C26" s="1">
         <v>5.9568900000000005E-4</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>8397</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>167865</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-10.713153061045396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
+        <v>2399</v>
+      </c>
+      <c r="C27" s="1">
         <v>4.9544499999999996E-4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>10098</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>216249</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-10.978987468719646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
+        <v>2806</v>
+      </c>
+      <c r="C28" s="1">
         <v>8.7114699999999996E-4</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>5743</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>304764</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-10.164796195424719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
+        <v>3283</v>
+      </c>
+      <c r="C29" s="1">
         <v>3.36962E-4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>14883</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>354401</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-11.535126475093842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
+        <v>3841</v>
+      </c>
+      <c r="C30" s="1">
         <v>1.1415500000000001E-3</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>4380</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>456215</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-9.7747902335337553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1">
+        <v>4493</v>
+      </c>
+      <c r="C31" s="1">
         <v>1.01833E-3</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>4911</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>578835</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-9.9395791277529941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1">
+        <v>5256</v>
+      </c>
+      <c r="C32" s="1">
         <v>1.6397899999999999E-3</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>3051</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>805600</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-9.2522732169879074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
+        <v>6149</v>
+      </c>
+      <c r="C33" s="1">
         <v>6.4380399999999999E-4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>7771</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>955114</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-10.601090839139207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1">
+        <v>7194</v>
+      </c>
+      <c r="C34" s="1">
         <v>2.1537800000000001E-3</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>2328</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>1240551</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-8.8589133927737702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
+        <v>8416</v>
+      </c>
+      <c r="C35" s="1">
         <v>1.71126E-3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>2923</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>1592267</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-9.1907253125531962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11519</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.4665699999999999E-3</v>
+      </c>
       <c r="D36" s="1">
+        <v>3410</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2657385</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-9.4133383514855904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>13477</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.4051000000000003E-3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1138</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3379083</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-7.8266095145818806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15768</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3.5748899999999998E-3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1402</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4344096</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-8.1278854340706506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>18448</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.7392499999999996E-3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>744</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5751239</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-7.2131962394695845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>21584</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.6746700000000001E-3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1875</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7164528</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-8.5464233814593946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>25253</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8.6973899999999993E-3</v>
+      </c>
+      <c r="D41" s="1">
+        <v>575</v>
+      </c>
+      <c r="E41" s="1">
+        <v>9172388</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-6.8452017571472519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>29546</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7.40473E-3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>677</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11864606</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-7.077337153437318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
         <v>2157401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.4665699999999999E-3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3410</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2657385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4.4051000000000003E-3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1138</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3379083</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.5748899999999998E-3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1402</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4344096</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1">
-        <v>6.7392499999999996E-3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>744</v>
-      </c>
-      <c r="D40" s="1">
-        <v>5751239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2.6746700000000001E-3</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1875</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7164528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1">
-        <v>8.6973899999999993E-3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>575</v>
-      </c>
-      <c r="D42" s="1">
-        <v>9172388</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7.40473E-3</v>
-      </c>
-      <c r="C43" s="1">
-        <v>677</v>
-      </c>
-      <c r="D43" s="1">
-        <v>11864606</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MochilaFracionaria/kpfrac_heuristic.xlsx
+++ b/MochilaFracionaria/kpfrac_heuristic.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="kpfrac_heuristic" sheetId="1" r:id="rId1"/>
+    <sheet name="kpfrac_linear" sheetId="2" r:id="rId2"/>
+    <sheet name="kpfrac_nlogn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2941,7 +2943,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Heurística"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2971,7 +2973,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Heurística"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3255,7 +3257,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,4 +4161,30 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MochilaFracionaria/kpfrac_heuristic.xlsx
+++ b/MochilaFracionaria/kpfrac_heuristic.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="56">
   <si>
     <t>Instance</t>
   </si>
@@ -824,6 +824,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Heuristica</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -850,10 +853,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
+              <c:f>kpfrac_heuristic!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -976,138 +979,174 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>29546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75785</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kpfrac_heuristic!$F$2:$F$42</c:f>
+              <c:f>kpfrac_heuristic!$F$2:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>-16.056299633178103</c:v>
+                  <c:v>-17.077381373697154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.162050699044656</c:v>
+                  <c:v>-17.376621993203816</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.644118437859186</c:v>
+                  <c:v>-16.911281997730715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17.142724191859877</c:v>
+                  <c:v>-18.427744382224017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15.032697561442609</c:v>
+                  <c:v>-16.374118832493185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15.604844281187734</c:v>
+                  <c:v>-16.823493261521364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.759481146731241</c:v>
+                  <c:v>-16.126655504019912</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.908126903127162</c:v>
+                  <c:v>-17.611309571662147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-14.219104849387181</c:v>
+                  <c:v>-15.582370489141278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-14.34716822805712</c:v>
+                  <c:v>-15.878711067000211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.738857557216676</c:v>
+                  <c:v>-15.212895064603984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.070163995139163</c:v>
+                  <c:v>-16.60066561312658</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-13.475040014491913</c:v>
+                  <c:v>-14.877466280488878</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-13.722561728416956</c:v>
+                  <c:v>-15.067104571305716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-12.942440918227346</c:v>
+                  <c:v>-14.376120484121364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-14.055447036774265</c:v>
+                  <c:v>-15.748083670677687</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-12.590908391197591</c:v>
+                  <c:v>-14.01134178123198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-12.828196824733348</c:v>
+                  <c:v>-14.274047967345746</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.01431584907971</c:v>
+                  <c:v>-13.469511795565891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-13.443535653236802</c:v>
+                  <c:v>-14.877337905100688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-11.615083377359623</c:v>
+                  <c:v>-13.059547262179407</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-11.899484260806924</c:v>
+                  <c:v>-13.312589075304468</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-11.10231835460247</c:v>
+                  <c:v>-12.58692175818064</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-12.450318071519765</c:v>
+                  <c:v>-13.917991582994135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-10.713153061045396</c:v>
+                  <c:v>-12.103586225715862</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10.978987468719646</c:v>
+                  <c:v>-12.363924865827119</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.164796195424719</c:v>
+                  <c:v>-11.658045166447067</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-11.535126475093842</c:v>
+                  <c:v>-13.038504918834294</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.7747902335337553</c:v>
+                  <c:v>-11.243273392287547</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.9395791277529941</c:v>
+                  <c:v>-11.414948898072678</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.2522732169879074</c:v>
+                  <c:v>-10.669215751248016</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10.601090839139207</c:v>
+                  <c:v>-12.073153272998155</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.8589133927737702</c:v>
+                  <c:v>-10.269902407986352</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9.1907253125531962</c:v>
+                  <c:v>-10.496228641783985</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9.4133383514855904</c:v>
+                  <c:v>-11.17249931047901</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-7.8266095145818806</c:v>
+                  <c:v>-9.3157695835483505</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.1278854340706506</c:v>
+                  <c:v>-9.5858217153068015</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-7.2131962394695845</c:v>
+                  <c:v>-8.6485465626371933</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.5464233814593946</c:v>
+                  <c:v>-10.132571985065121</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.8452017571472519</c:v>
+                  <c:v>-8.304365525914486</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.077337153437318</c:v>
+                  <c:v>-8.5256040035175928</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.1614745998274145</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.2961429341286719</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.5411885436484845</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.1455276996816064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.3167203730275654</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.3900914546924552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1582435856"/>
-        <c:axId val="-1582436944"/>
+        <c:axId val="-2055060592"/>
+        <c:axId val="-2055061136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1582435856"/>
+        <c:axId val="-2055060592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,12 +1222,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582436944"/>
+        <c:crossAx val="-2055061136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1582436944"/>
+        <c:axId val="-2055061136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582435856"/>
+        <c:crossAx val="-2055060592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1402,10 +1441,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
+              <c:f>kpfrac_heuristic!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -1528,138 +1567,174 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>29546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75785</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>kpfrac_heuristic!$C$2:$C$42</c:f>
+              <c:f>kpfrac_heuristic!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>1.4674800000000001E-5</c:v>
+                  <c:v>7.2309599999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.36376E-5</c:v>
+                  <c:v>5.8764569202906102E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9527699999999999E-5</c:v>
+                  <c:v>8.1132872715702302E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9107599999999997E-6</c:v>
+                  <c:v>2.83593445137193E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9833699999999999E-5</c:v>
+                  <c:v>1.1773323537929601E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0066599999999999E-5</c:v>
+                  <c:v>8.6223152282082094E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6053999999999997E-5</c:v>
+                  <c:v>1.3976324116416701E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6262100000000001E-5</c:v>
+                  <c:v>4.9942186947485897E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2435200000000002E-5</c:v>
+                  <c:v>2.03816377859119E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7981300000000001E-5</c:v>
+                  <c:v>1.65970795796274E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3146199999999994E-5</c:v>
+                  <c:v>2.6330691494688601E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9068899999999999E-5</c:v>
+                  <c:v>1.00624028979721E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.7823099999999996E-5</c:v>
+                  <c:v>3.32228121117116E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3977099999999993E-5</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1.2703899999999999E-4</c:v>
+                  <c:v>2.9130609819352602E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7028000376223098E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8733899999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.62091E-4</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1.37508E-4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2.4173E-4</c:v>
+                  <c:v>1.8169979649681199E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0557208085595097E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0475822245570297E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8160272233584995E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9761999999999999E-5</c:v>
+                  <c:v>3.3225768510009497E-5</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3.1879500000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>2.6175699999999999E-4</c:v>
+                  <c:v>1.17134423464415E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8290460183584905E-5</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>4.5485099999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>1.7868199999999999E-4</c:v>
+                  <c:v>1.6253952928933999E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4605137349126303E-5</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.9568900000000005E-4</c:v>
+                  <c:v>2.2722572142695499E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
-                  <c:v>4.9544499999999996E-4</c:v>
+                  <c:v>1.89708919831661E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="General">
-                  <c:v>8.7114699999999996E-4</c:v>
+                  <c:v>3.0944161148604299E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="General">
-                  <c:v>3.36962E-4</c:v>
+                  <c:v>1.1885540077974601E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="General">
-                  <c:v>1.1415500000000001E-3</c:v>
+                  <c:v>4.12512828974559E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="General">
-                  <c:v>1.01833E-3</c:v>
+                  <c:v>3.6623342855057598E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="General">
-                  <c:v>1.6397899999999999E-3</c:v>
+                  <c:v>6.1410980103167605E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
-                  <c:v>6.4380399999999999E-4</c:v>
+                  <c:v>2.3206985055227301E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
-                  <c:v>2.1537800000000001E-3</c:v>
+                  <c:v>8.0993715581479005E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
-                  <c:v>1.71126E-3</c:v>
+                  <c:v>6.9234145666033505E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
-                  <c:v>1.4665699999999999E-3</c:v>
+                  <c:v>4.33254E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="General">
-                  <c:v>4.4051000000000003E-3</c:v>
+                  <c:v>1.5691841857546501E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>3.5748899999999998E-3</c:v>
+                  <c:v>1.3013080926359501E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
-                  <c:v>6.7392499999999996E-3</c:v>
+                  <c:v>2.4918854010961898E-3</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
-                  <c:v>2.6746700000000001E-3</c:v>
+                  <c:v>8.9082398004632296E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
-                  <c:v>8.6973899999999993E-3</c:v>
+                  <c:v>3.1632745098039202E-3</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
-                  <c:v>7.40473E-3</c:v>
+                  <c:v>2.71354772234258E-3</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1.74631E-3</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>6.3627099236641099E-3</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>5.3687854077252503E-3</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>3.5314399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>1.2545203007518799E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>5.9615721096543299E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,11 +1749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1582431504"/>
-        <c:axId val="-1582432048"/>
+        <c:axId val="-2055051888"/>
+        <c:axId val="-2055063312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1582431504"/>
+        <c:axId val="-2055051888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,12 +1810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582432048"/>
+        <c:crossAx val="-2055063312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1582432048"/>
+        <c:axId val="-2055063312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1582431504"/>
+        <c:crossAx val="-2055051888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1886,7 +1961,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2280,11 +2354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346234016"/>
-        <c:axId val="-1346236736"/>
+        <c:axId val="-2055052976"/>
+        <c:axId val="-2055066032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346234016"/>
+        <c:axId val="-2055052976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,12 +2415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346236736"/>
+        <c:crossAx val="-2055066032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1346236736"/>
+        <c:axId val="-2055066032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346234016"/>
+        <c:crossAx val="-2055052976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,7 +2566,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,11 +2956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1487411136"/>
-        <c:axId val="-1487411680"/>
+        <c:axId val="-2055062224"/>
+        <c:axId val="-2055061680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1487411136"/>
+        <c:axId val="-2055062224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,12 +3017,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1487411680"/>
+        <c:crossAx val="-2055061680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1487411680"/>
+        <c:axId val="-2055061680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3006,7 +3079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1487411136"/>
+        <c:crossAx val="-2055062224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3100,7 +3173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3494,11 +3566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1770567120"/>
-        <c:axId val="-1580291024"/>
+        <c:axId val="-2055052432"/>
+        <c:axId val="-2055062768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1770567120"/>
+        <c:axId val="-2055052432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,12 +3627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1580291024"/>
+        <c:crossAx val="-2055062768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1580291024"/>
+        <c:axId val="-2055062768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,7 +3689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1770567120"/>
+        <c:crossAx val="-2055052432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3706,7 +3778,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4100,11 +4171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1478089840"/>
-        <c:axId val="-1478095280"/>
+        <c:axId val="-1987854480"/>
+        <c:axId val="-1987855568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1478089840"/>
+        <c:axId val="-1987854480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4161,12 +4232,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1478095280"/>
+        <c:crossAx val="-1987855568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1478095280"/>
+        <c:axId val="-1987855568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4223,7 +4294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1478089840"/>
+        <c:crossAx val="-1987854480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4307,7 +4378,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Log(tempo)</a:t>
+              <a:t>Log(Tempo)</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4357,302 +4428,6 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Heuristica</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1282</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1499</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1753</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2399</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2806</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3283</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3841</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4493</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5256</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6149</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7194</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8416</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11519</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15768</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18448</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21584</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25253</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29546</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kpfrac_heuristic!$F$2:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>-16.056299633178103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-16.162050699044656</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-15.644118437859186</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-17.142724191859877</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15.032697561442609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-15.604844281187734</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-14.759481146731241</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15.908126903127162</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-14.219104849387181</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-14.34716822805712</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.738857557216676</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-15.070163995139163</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.475040014491913</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.722561728416956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-12.942440918227346</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-14.055447036774265</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-12.590908391197591</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-12.828196824733348</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-12.01431584907971</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.443535653236802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-11.615083377359623</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-11.899484260806924</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-11.10231835460247</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-12.450318071519765</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-10.713153061045396</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-10.978987468719646</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-10.164796195424719</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-11.535126475093842</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-9.7747902335337553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-9.9395791277529941</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-9.2522732169879074</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-10.601090839139207</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-8.8589133927737702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-9.1907253125531962</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9.4133383514855904</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-7.8266095145818806</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-8.1278854340706506</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-7.2131962394695845</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-8.5464233814593946</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-6.8452017571472519</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-7.077337153437318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
             <c:v>Linear</c:v>
           </c:tx>
           <c:spPr>
@@ -4669,11 +4444,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5000,15 +4775,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>n.log.n</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5019,11 +4794,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5349,6 +5124,338 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Heuristica</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$B$2:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75785</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$F$2:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>-17.077381373697154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17.376621993203816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.911281997730715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.427744382224017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-16.374118832493185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16.823493261521364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16.126655504019912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-17.611309571662147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15.582370489141278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15.878711067000211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15.212895064603984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-16.60066561312658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14.877466280488878</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-15.067104571305716</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14.376120484121364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15.748083670677687</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14.01134178123198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14.274047967345746</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-13.469511795565891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-14.877337905100688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-13.059547262179407</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-13.312589075304468</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12.58692175818064</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13.917991582994135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12.103586225715862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12.363924865827119</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.658045166447067</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-13.038504918834294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11.243273392287547</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11.414948898072678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.669215751248016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12.073153272998155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10.269902407986352</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10.496228641783985</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11.17249931047901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.3157695835483505</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.5858217153068015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.6485465626371933</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-10.132571985065121</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.304365525914486</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8.5256040035175928</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.1614745998274145</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-7.2961429341286719</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-7.5411885436484845</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.1455276996816064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.3167203730275654</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.3900914546924552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5357,11 +5464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1371548288"/>
-        <c:axId val="-1371547744"/>
+        <c:axId val="-1989554368"/>
+        <c:axId val="-1989543488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1371548288"/>
+        <c:axId val="-1989554368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5418,12 +5525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371547744"/>
+        <c:crossAx val="-1989543488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1371547744"/>
+        <c:axId val="-1989543488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5480,7 +5587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371548288"/>
+        <c:crossAx val="-1989554368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5641,302 +5748,6 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Heuristica</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>kpfrac_heuristic!$B$2:$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>429</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>937</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1096</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1282</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1499</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1753</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2051</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2399</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2806</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3283</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3841</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4493</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5256</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6149</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7194</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8416</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11519</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13477</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15768</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>18448</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21584</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25253</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>29546</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>kpfrac_heuristic!$C$2:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>1.4674800000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36376E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9527699999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9107599999999997E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9833699999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0066599999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.6053999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6262100000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2435200000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7981300000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3146199999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9068899999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7823099999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.3977099999999993E-5</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>1.2703899999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.8733899999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.62091E-4</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>1.37508E-4</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>2.4173E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.9761999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>3.1879500000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>2.6175699999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>4.5485099999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>1.7868199999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>5.9568900000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>4.9544499999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>8.7114699999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>3.36962E-4</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>1.1415500000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>1.01833E-3</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>1.6397899999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>6.4380399999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>2.1537800000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>1.71126E-3</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="General">
-                  <c:v>1.4665699999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>4.4051000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>3.5748899999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>6.7392499999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>2.6746700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>8.6973899999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>7.40473E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
             <c:v>Linear</c:v>
           </c:tx>
           <c:spPr>
@@ -5953,11 +5764,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6284,15 +6095,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>n.log.n</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6303,11 +6114,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6633,6 +6444,338 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Heuristica</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$B$2:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4493</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6149</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11519</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13477</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15768</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18448</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21584</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25253</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29546</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40444</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47319</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75785</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>kpfrac_heuristic!$C$2:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>7.2309599999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8764569202906102E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1132872715702302E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.83593445137193E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1773323537929601E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6223152282082094E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3976324116416701E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9942186947485897E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.03816377859119E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65970795796274E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6330691494688601E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.00624028979721E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.32228121117116E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9130609819352602E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7028000376223098E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8169979649681199E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0557208085595097E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0475822245570297E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8160272233584995E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3225768510009497E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>1.17134423464415E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8290460183584905E-5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>1.6253952928933999E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.4605137349126303E-5</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>2.2722572142695499E-4</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.89708919831661E-4</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>3.0944161148604299E-4</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1.1885540077974601E-4</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>4.12512828974559E-4</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>3.6623342855057598E-4</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>6.1410980103167605E-4</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>2.3206985055227301E-4</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>8.0993715581479005E-4</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>6.9234145666033505E-4</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>4.33254E-4</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>1.5691841857546501E-3</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1.3013080926359501E-3</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>2.4918854010961898E-3</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>8.9082398004632296E-4</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>3.1632745098039202E-3</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>2.71354772234258E-3</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1.74631E-3</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>6.3627099236641099E-3</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>5.3687854077252503E-3</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>3.5314399999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>1.2545203007518799E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>5.9615721096543299E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6641,11 +6784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1771145360"/>
-        <c:axId val="-1771129040"/>
+        <c:axId val="-1951666752"/>
+        <c:axId val="-1951678176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1771145360"/>
+        <c:axId val="-1951666752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,12 +6845,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1771129040"/>
+        <c:crossAx val="-1951678176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1771129040"/>
+        <c:axId val="-1951678176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6764,7 +6907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1771145360"/>
+        <c:crossAx val="-1951666752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7086,10 +7229,13 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -7123,10 +7269,13 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -11814,10 +11963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E52" sqref="A45:E52"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11851,869 +12000,990 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4674800000000001E-5</v>
+        <v>7.2309599999999996E-6</v>
       </c>
       <c r="D2" s="1">
-        <v>340721</v>
-      </c>
-      <c r="E2" s="1">
-        <v>455.33</v>
+        <v>691472</v>
+      </c>
+      <c r="E2">
+        <v>455.33333333333297</v>
       </c>
       <c r="F2">
         <f>LOG(C2,2)</f>
-        <v>-16.056299633178103</v>
+        <v>-17.077381373697154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>58</v>
       </c>
       <c r="C3" s="2">
-        <v>1.36376E-5</v>
+        <v>5.8764569202906102E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>367660</v>
-      </c>
-      <c r="E3" s="1">
+        <v>850853</v>
+      </c>
+      <c r="E3">
         <v>646</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F42" si="0">LOG(C3,2)</f>
-        <v>-16.162050699044656</v>
+        <f t="shared" ref="F3:F35" si="0">LOG(C3,2)</f>
+        <v>-17.376621993203816</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>67</v>
       </c>
       <c r="C4" s="2">
-        <v>1.9527699999999999E-5</v>
+        <v>8.1132872715702302E-6</v>
       </c>
       <c r="D4" s="1">
-        <v>256098</v>
-      </c>
-      <c r="E4" s="1">
+        <v>616274</v>
+      </c>
+      <c r="E4">
         <v>1562</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-15.644118437859186</v>
+        <v>-16.911281997730715</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>78</v>
       </c>
       <c r="C5" s="2">
-        <v>6.9107599999999997E-6</v>
+        <v>2.83593445137193E-6</v>
       </c>
       <c r="D5" s="1">
-        <v>725391</v>
-      </c>
-      <c r="E5" s="1">
+        <v>1763088</v>
+      </c>
+      <c r="E5">
         <v>1076</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>-17.142724191859877</v>
+        <v>-18.427744382224017</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>91</v>
       </c>
       <c r="C6" s="2">
-        <v>2.9833699999999999E-5</v>
+        <v>1.1773323537929601E-5</v>
       </c>
       <c r="D6" s="1">
-        <v>167663</v>
-      </c>
-      <c r="E6" s="1">
+        <v>424689</v>
+      </c>
+      <c r="E6">
         <v>1293</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-15.032697561442609</v>
+        <v>-16.374118832493185</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>106</v>
       </c>
       <c r="C7" s="2">
-        <v>2.0066599999999999E-5</v>
+        <v>8.6223152282082094E-6</v>
       </c>
       <c r="D7" s="1">
-        <v>249918</v>
-      </c>
-      <c r="E7" s="1">
+        <v>579891</v>
+      </c>
+      <c r="E7">
         <v>1725</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-15.604844281187734</v>
+        <v>-16.823493261521364</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>124</v>
       </c>
       <c r="C8" s="2">
-        <v>3.6053999999999997E-5</v>
+        <v>1.3976324116416701E-5</v>
       </c>
       <c r="D8" s="1">
-        <v>139097</v>
-      </c>
-      <c r="E8" s="1">
+        <v>357748</v>
+      </c>
+      <c r="E8">
         <v>3274</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>-14.759481146731241</v>
+        <v>-16.126655504019912</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>145</v>
       </c>
       <c r="C9" s="2">
-        <v>1.6262100000000001E-5</v>
+        <v>4.9942186947485897E-6</v>
       </c>
       <c r="D9" s="1">
-        <v>307648</v>
-      </c>
-      <c r="E9" s="1">
+        <v>1001158</v>
+      </c>
+      <c r="E9">
         <v>2966</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>-15.908126903127162</v>
+        <v>-17.611309571662147</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>169</v>
       </c>
       <c r="C10" s="2">
-        <v>5.2435200000000002E-5</v>
+        <v>2.03816377859119E-5</v>
       </c>
       <c r="D10" s="1">
-        <v>95413</v>
-      </c>
-      <c r="E10" s="1">
+        <v>245319</v>
+      </c>
+      <c r="E10">
         <v>3272</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>-14.219104849387181</v>
+        <v>-15.582370489141278</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>197</v>
       </c>
       <c r="C11" s="2">
-        <v>4.7981300000000001E-5</v>
+        <v>1.65970795796274E-5</v>
       </c>
       <c r="D11" s="1">
-        <v>104499</v>
-      </c>
-      <c r="E11" s="1">
+        <v>301258</v>
+      </c>
+      <c r="E11">
         <v>4313</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-14.34716822805712</v>
+        <v>-15.878711067000211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>230</v>
       </c>
       <c r="C12" s="2">
-        <v>7.3146199999999994E-5</v>
+        <v>2.6330691494688601E-5</v>
       </c>
       <c r="D12" s="1">
-        <v>68534</v>
-      </c>
-      <c r="E12" s="1">
+        <v>189893</v>
+      </c>
+      <c r="E12">
         <v>8113</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-13.738857557216676</v>
+        <v>-15.212895064603984</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>269</v>
       </c>
       <c r="C13" s="2">
-        <v>2.9068899999999999E-5</v>
+        <v>1.00624028979721E-5</v>
       </c>
       <c r="D13" s="1">
-        <v>172521</v>
-      </c>
-      <c r="E13" s="1">
+        <v>496900</v>
+      </c>
+      <c r="E13">
         <v>6770</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>-15.070163995139163</v>
+        <v>-16.60066561312658</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>314</v>
       </c>
       <c r="C14" s="2">
-        <v>8.7823099999999996E-5</v>
+        <v>3.32228121117116E-5</v>
       </c>
       <c r="D14" s="1">
-        <v>56944</v>
-      </c>
-      <c r="E14" s="1">
+        <v>150499</v>
+      </c>
+      <c r="E14">
         <v>8485</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>-13.475040014491913</v>
+        <v>-14.877466280488878</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>367</v>
       </c>
       <c r="C15" s="2">
-        <v>7.3977099999999993E-5</v>
+        <v>2.9130609819352602E-5</v>
       </c>
       <c r="D15" s="1">
-        <v>67629</v>
-      </c>
-      <c r="E15" s="1">
+        <v>171641</v>
+      </c>
+      <c r="E15">
         <v>11029</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>-13.722561728416956</v>
+        <v>-15.067104571305716</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>429</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.2703899999999999E-4</v>
+      <c r="C16" s="2">
+        <v>4.7028000376223098E-5</v>
       </c>
       <c r="D16" s="1">
-        <v>39484</v>
-      </c>
-      <c r="E16" s="1">
+        <v>106320</v>
+      </c>
+      <c r="E16">
         <v>18886</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>-12.942440918227346</v>
+        <v>-14.376120484121364</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>501</v>
       </c>
       <c r="C17" s="2">
-        <v>5.8733899999999997E-5</v>
+        <v>1.8169979649681199E-5</v>
       </c>
       <c r="D17" s="1">
-        <v>85351</v>
-      </c>
-      <c r="E17" s="1">
+        <v>275180</v>
+      </c>
+      <c r="E17">
         <v>18225</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>-14.055447036774265</v>
+        <v>-15.748083670677687</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>586</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.62091E-4</v>
+      <c r="C18" s="2">
+        <v>6.0557208085595097E-5</v>
       </c>
       <c r="D18" s="1">
-        <v>30927</v>
-      </c>
-      <c r="E18" s="1">
+        <v>82567</v>
+      </c>
+      <c r="E18">
         <v>23862</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>-12.590908391197591</v>
+        <v>-14.01134178123198</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>685</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.37508E-4</v>
+      <c r="C19" s="2">
+        <v>5.0475822245570297E-5</v>
       </c>
       <c r="D19" s="1">
-        <v>36376</v>
-      </c>
-      <c r="E19" s="1">
+        <v>99058</v>
+      </c>
+      <c r="E19">
         <v>29748</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>-12.828196824733348</v>
+        <v>-14.274047967345746</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>801</v>
       </c>
-      <c r="C20" s="1">
-        <v>2.4173E-4</v>
+      <c r="C20" s="2">
+        <v>8.8160272233584995E-5</v>
       </c>
       <c r="D20" s="1">
-        <v>20738</v>
-      </c>
-      <c r="E20" s="1">
+        <v>56716</v>
+      </c>
+      <c r="E20">
         <v>46388</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>-12.01431584907971</v>
+        <v>-13.469511795565891</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>937</v>
       </c>
       <c r="C21" s="2">
-        <v>8.9761999999999999E-5</v>
+        <v>3.3225768510009497E-5</v>
       </c>
       <c r="D21" s="1">
-        <v>55714</v>
-      </c>
-      <c r="E21" s="1">
+        <v>150486</v>
+      </c>
+      <c r="E21">
         <v>48627</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>-13.443535653236802</v>
+        <v>-14.877337905100688</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>1096</v>
       </c>
       <c r="C22" s="1">
-        <v>3.1879500000000003E-4</v>
+        <v>1.17134423464415E-4</v>
       </c>
       <c r="D22" s="1">
-        <v>15728</v>
-      </c>
-      <c r="E22" s="1">
+        <v>42686</v>
+      </c>
+      <c r="E22">
         <v>63723</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>-11.615083377359623</v>
+        <v>-13.059547262179407</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>1282</v>
       </c>
-      <c r="C23" s="1">
-        <v>2.6175699999999999E-4</v>
+      <c r="C23" s="2">
+        <v>9.8290460183584905E-5</v>
       </c>
       <c r="D23" s="1">
-        <v>19159</v>
-      </c>
-      <c r="E23" s="1">
+        <v>50871</v>
+      </c>
+      <c r="E23">
         <v>80086</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>-11.899484260806924</v>
+        <v>-13.312589075304468</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>1499</v>
       </c>
       <c r="C24" s="1">
-        <v>4.5485099999999999E-4</v>
+        <v>1.6253952928933999E-4</v>
       </c>
       <c r="D24" s="1">
-        <v>10997</v>
-      </c>
-      <c r="E24" s="1">
+        <v>30762</v>
+      </c>
+      <c r="E24">
         <v>116121</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>-11.10231835460247</v>
+        <v>-12.58692175818064</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>1753</v>
       </c>
-      <c r="C25" s="1">
-        <v>1.7868199999999999E-4</v>
+      <c r="C25" s="2">
+        <v>6.4605137349126303E-5</v>
       </c>
       <c r="D25" s="1">
-        <v>28005</v>
-      </c>
-      <c r="E25" s="1">
+        <v>77394</v>
+      </c>
+      <c r="E25">
         <v>131250</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>-12.450318071519765</v>
+        <v>-13.917991582994135</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>2051</v>
       </c>
       <c r="C26" s="1">
-        <v>5.9568900000000005E-4</v>
+        <v>2.2722572142695499E-4</v>
       </c>
       <c r="D26" s="1">
-        <v>8397</v>
-      </c>
-      <c r="E26" s="1">
+        <v>22005</v>
+      </c>
+      <c r="E26">
         <v>167865</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>-10.713153061045396</v>
+        <v>-12.103586225715862</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>2399</v>
       </c>
       <c r="C27" s="1">
-        <v>4.9544499999999996E-4</v>
+        <v>1.89708919831661E-4</v>
       </c>
       <c r="D27" s="1">
-        <v>10098</v>
-      </c>
-      <c r="E27" s="1">
+        <v>26357</v>
+      </c>
+      <c r="E27">
         <v>216249</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>-10.978987468719646</v>
+        <v>-12.363924865827119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>2806</v>
       </c>
       <c r="C28" s="1">
-        <v>8.7114699999999996E-4</v>
+        <v>3.0944161148604299E-4</v>
       </c>
       <c r="D28" s="1">
-        <v>5743</v>
-      </c>
-      <c r="E28" s="1">
+        <v>16159</v>
+      </c>
+      <c r="E28">
         <v>304764</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>-10.164796195424719</v>
+        <v>-11.658045166447067</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>3283</v>
       </c>
       <c r="C29" s="1">
-        <v>3.36962E-4</v>
+        <v>1.1885540077974601E-4</v>
       </c>
       <c r="D29" s="1">
-        <v>14883</v>
-      </c>
-      <c r="E29" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E29">
         <v>354401</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>-11.535126475093842</v>
+        <v>-13.038504918834294</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>3841</v>
       </c>
       <c r="C30" s="1">
-        <v>1.1415500000000001E-3</v>
+        <v>4.12512828974559E-4</v>
       </c>
       <c r="D30" s="1">
-        <v>4380</v>
-      </c>
-      <c r="E30" s="1">
+        <v>12121</v>
+      </c>
+      <c r="E30">
         <v>456215</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>-9.7747902335337553</v>
+        <v>-11.243273392287547</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>4493</v>
       </c>
       <c r="C31" s="1">
-        <v>1.01833E-3</v>
+        <v>3.6623342855057598E-4</v>
       </c>
       <c r="D31" s="1">
-        <v>4911</v>
-      </c>
-      <c r="E31" s="1">
+        <v>13653</v>
+      </c>
+      <c r="E31">
         <v>578835</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>-9.9395791277529941</v>
+        <v>-11.414948898072678</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>5256</v>
       </c>
       <c r="C32" s="1">
-        <v>1.6397899999999999E-3</v>
+        <v>6.1410980103167605E-4</v>
       </c>
       <c r="D32" s="1">
-        <v>3051</v>
-      </c>
-      <c r="E32" s="1">
+        <v>8142</v>
+      </c>
+      <c r="E32">
         <v>805600</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>-9.2522732169879074</v>
+        <v>-10.669215751248016</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>6149</v>
       </c>
       <c r="C33" s="1">
-        <v>6.4380399999999999E-4</v>
+        <v>2.3206985055227301E-4</v>
       </c>
       <c r="D33" s="1">
-        <v>7771</v>
-      </c>
-      <c r="E33" s="1">
+        <v>21546</v>
+      </c>
+      <c r="E33">
         <v>955114</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>-10.601090839139207</v>
+        <v>-12.073153272998155</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>7194</v>
       </c>
       <c r="C34" s="1">
-        <v>2.1537800000000001E-3</v>
+        <v>8.0993715581479005E-4</v>
       </c>
       <c r="D34" s="1">
-        <v>2328</v>
-      </c>
-      <c r="E34" s="1">
+        <v>6174</v>
+      </c>
+      <c r="E34">
         <v>1240551</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>-8.8589133927737702</v>
+        <v>-10.269902407986352</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>8416</v>
       </c>
       <c r="C35" s="1">
-        <v>1.71126E-3</v>
+        <v>6.9234145666033505E-4</v>
       </c>
       <c r="D35" s="1">
-        <v>2923</v>
-      </c>
-      <c r="E35" s="1">
+        <v>7222</v>
+      </c>
+      <c r="E35">
         <v>1592267</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>-9.1907253125531962</v>
+        <v>-10.496228641783985</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>11519</v>
       </c>
       <c r="C36" s="1">
-        <v>1.4665699999999999E-3</v>
+        <v>4.33254E-4</v>
       </c>
       <c r="D36" s="1">
-        <v>3410</v>
-      </c>
-      <c r="E36" s="1">
+        <v>11541</v>
+      </c>
+      <c r="E36">
         <v>2657385</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>-9.4133383514855904</v>
+        <f>LOG(C36,2)</f>
+        <v>-11.17249931047901</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>13477</v>
       </c>
       <c r="C37" s="1">
-        <v>4.4051000000000003E-3</v>
+        <v>1.5691841857546501E-3</v>
       </c>
       <c r="D37" s="1">
-        <v>1138</v>
-      </c>
-      <c r="E37" s="1">
+        <v>3187</v>
+      </c>
+      <c r="E37">
         <v>3379083</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>-7.8266095145818806</v>
+        <f>LOG(C37,2)</f>
+        <v>-9.3157695835483505</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>15768</v>
       </c>
       <c r="C38" s="1">
-        <v>3.5748899999999998E-3</v>
+        <v>1.3013080926359501E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>1402</v>
-      </c>
-      <c r="E38" s="1">
+        <v>3843</v>
+      </c>
+      <c r="E38">
         <v>4344096</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>-8.1278854340706506</v>
+        <f>LOG(C38,2)</f>
+        <v>-9.5858217153068015</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>18448</v>
       </c>
       <c r="C39" s="1">
-        <v>6.7392499999999996E-3</v>
+        <v>2.4918854010961898E-3</v>
       </c>
       <c r="D39" s="1">
-        <v>744</v>
-      </c>
-      <c r="E39" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E39">
         <v>5751239</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>-7.2131962394695845</v>
+        <f>LOG(C39,2)</f>
+        <v>-8.6485465626371933</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>21584</v>
       </c>
       <c r="C40" s="1">
-        <v>2.6746700000000001E-3</v>
+        <v>8.9082398004632296E-4</v>
       </c>
       <c r="D40" s="1">
-        <v>1875</v>
-      </c>
-      <c r="E40" s="1">
+        <v>5613</v>
+      </c>
+      <c r="E40">
         <v>7164528</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>-8.5464233814593946</v>
+        <f>LOG(C40,2)</f>
+        <v>-10.132571985065121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>25253</v>
       </c>
       <c r="C41" s="1">
-        <v>8.6973899999999993E-3</v>
+        <v>3.1632745098039202E-3</v>
       </c>
       <c r="D41" s="1">
-        <v>575</v>
-      </c>
-      <c r="E41" s="1">
+        <v>1581</v>
+      </c>
+      <c r="E41">
         <v>9172388</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>-6.8452017571472519</v>
+        <f>LOG(C41,2)</f>
+        <v>-8.304365525914486</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1">
         <v>29546</v>
       </c>
       <c r="C42" s="1">
-        <v>7.40473E-3</v>
+        <v>2.71354772234258E-3</v>
       </c>
       <c r="D42" s="1">
-        <v>677</v>
-      </c>
-      <c r="E42" s="1">
+        <v>1844</v>
+      </c>
+      <c r="E42">
         <v>11864606</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>-7.077337153437318</v>
+        <f>LOG(C42,2)</f>
+        <v>-8.5256040035175928</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="1">
-        <v>2157401</v>
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40444</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.74631E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2865</v>
+      </c>
+      <c r="E43">
+        <v>19668481</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:F48" si="1">LOG(C43,2)</f>
+        <v>-9.1614745998274145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1">
+        <v>47319</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.3627099236641099E-3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>786</v>
+      </c>
+      <c r="E44">
+        <v>25304273</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-7.2961429341286719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>55363</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5.3687854077252503E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>932</v>
+      </c>
+      <c r="E45">
+        <v>32633200</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-7.5411885436484845</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="1">
+        <v>75785</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.5314399999999998E-3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1416</v>
+      </c>
+      <c r="E46">
+        <v>53890371</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-8.1455276996816064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1">
+        <v>88668</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.2545203007518799E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>399</v>
+      </c>
+      <c r="E47">
+        <v>69476973</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>-6.3167203730275654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>103471</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.9615721096543299E-3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>839</v>
+      </c>
+      <c r="E48">
+        <v>32713.333333333299</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>-7.3900914546924552</v>
       </c>
     </row>
   </sheetData>
@@ -14915,8 +15185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
